--- a/medicine/Psychotrope/Brasserie_artisanale_du_val_d'Ainan/Brasserie_artisanale_du_val_d'Ainan.xlsx
+++ b/medicine/Psychotrope/Brasserie_artisanale_du_val_d'Ainan/Brasserie_artisanale_du_val_d'Ainan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_val_d%27Ainan</t>
+          <t>Brasserie_artisanale_du_val_d'Ainan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie artisanale du Val d’Ainan, est une entreprise originaire et implantée à Saint-Geoire-en-Valdaine en Isère. La brasserie propose sa gamme de bière sous le nom de « La Dauphine », en référence à l'ancienne province française du dauphiné dont faisait partie l'Isère.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_val_d%27Ainan</t>
+          <t>Brasserie_artisanale_du_val_d'Ainan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette petite brasserie iséroise a vu le jour en 2005 alors que le projet était monté depuis l'année 2003 par Catherine Bown ingénieure belge en agro-alimentaire spécialisée dans la fermentation.
 L'implantation dans la région vient des origines familiales de William Bown et c'est ainsi qu'en 2006 eurent lieu les premières ventes. Ces mêmes années William et Catherine continuent de se perfectionner au métier de brasseur et à la création de nouvelles recettes aux gouts originaux par de nombreux tests de brassage et des stages en brasserie.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_artisanale_du_val_d%27Ainan</t>
+          <t>Brasserie_artisanale_du_val_d'Ainan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La Dauphine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« La Dauphine » est le nom sous lequel est proposé la gamme de bière de la brasserie.
 La Dauphine Blanche
